--- a/data/processed/bric_regression_data.xlsx
+++ b/data/processed/bric_regression_data.xlsx
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>4.017267358363228</v>
+        <v>4.017267358363227</v>
       </c>
       <c r="D44" t="n">
         <v>0.594</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>3.762719155000156</v>
+        <v>3.762719155000155</v>
       </c>
       <c r="D63" t="n">
         <v>0.8110000000000001</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3.762719155000156</v>
+        <v>3.762719155000155</v>
       </c>
       <c r="D14" t="n">
         <v>0.8110000000000001</v>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>23.27168198701937</v>
+        <v>23.27168198701938</v>
       </c>
     </row>
     <row r="16">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18.79613502867912</v>
+        <v>18.79613502867911</v>
       </c>
     </row>
     <row r="12">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21.80132155743652</v>
+        <v>21.80132155743651</v>
       </c>
     </row>
     <row r="13">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>21.41722536741188</v>
+        <v>21.41722536741187</v>
       </c>
     </row>
     <row r="15">
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>45.35623583004544</v>
+        <v>45.35623583004543</v>
       </c>
     </row>
     <row r="32">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>29.90788898273245</v>
+        <v>29.90788898273246</v>
       </c>
     </row>
     <row r="44">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>4.017267358363228</v>
+        <v>4.017267358363227</v>
       </c>
       <c r="D54" t="n">
         <v>0.594</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>3.762719155000156</v>
+        <v>3.762719155000155</v>
       </c>
       <c r="D74" t="n">
         <v>0.8110000000000001</v>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>23.27168198701937</v>
+        <v>23.27168198701938</v>
       </c>
     </row>
     <row r="76">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18.79613502867912</v>
+        <v>18.79613502867911</v>
       </c>
     </row>
     <row r="12">
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21.80132155743652</v>
+        <v>21.80132155743651</v>
       </c>
     </row>
     <row r="13">
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>21.41722536741188</v>
+        <v>21.41722536741187</v>
       </c>
     </row>
     <row r="15">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>45.35623583004544</v>
+        <v>45.35623583004543</v>
       </c>
     </row>
     <row r="12">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>4.017267358363228</v>
+        <v>4.017267358363227</v>
       </c>
       <c r="D10" t="n">
         <v>0.594</v>
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>29.90788898273245</v>
+        <v>29.90788898273246</v>
       </c>
     </row>
     <row r="4">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>4.017267358363228</v>
+        <v>4.017267358363227</v>
       </c>
       <c r="D14" t="n">
         <v>0.594</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3.762719155000156</v>
+        <v>3.762719155000155</v>
       </c>
       <c r="D13" t="n">
         <v>0.8110000000000001</v>
